--- a/data/old/demo_data.xlsx
+++ b/data/old/demo_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Code/BMIz_forecasting/TeenGrowth/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Library/CloudStorage/Dropbox/Code/BMIz_forecasting/TeenGrowth/data/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B317303E-00FD-B04E-A612-FF8AEE128239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968A066-A64E-2B47-9715-62017934C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="2000" windowWidth="19620" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,10 +619,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>101.6</v>
@@ -642,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>12.35</v>
+        <v>14.34</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>103.4</v>
@@ -665,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>12.41</v>
+        <v>14.41</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>102</v>
@@ -688,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>12.46</v>
+        <v>14.46</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>103</v>
@@ -711,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>12.54</v>
+        <v>14.54</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>105</v>
@@ -1292,7 +1292,7 @@
         <v>70</v>
       </c>
       <c r="D39">
-        <v>126.7</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
